--- a/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200214.xlsx
+++ b/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200214.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ncp/zhejiang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Documents/GitHub/COVID-19/data/unchecked/manual_collect/china/zhejiang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2F18D-CA37-054D-A12B-02AFF6BE7AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C1ED0-A1F3-4A45-B7A8-44B37F2B94ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="6660" windowWidth="28800" windowHeight="8240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10796,8 +10796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -10966,10 +10966,10 @@
         <v>3290</v>
       </c>
       <c r="C2" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D2" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>3292</v>
@@ -11032,10 +11032,10 @@
         <v>3290</v>
       </c>
       <c r="C3" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D3" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>3292</v>
@@ -11067,10 +11067,10 @@
         <v>3290</v>
       </c>
       <c r="C4" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D4" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>3292</v>
@@ -11102,10 +11102,10 @@
         <v>3290</v>
       </c>
       <c r="C5" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D5" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>3292</v>
@@ -11131,10 +11131,10 @@
         <v>3290</v>
       </c>
       <c r="C6" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D6" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>3292</v>
@@ -11166,10 +11166,10 @@
         <v>3290</v>
       </c>
       <c r="C7" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D7" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>3292</v>
@@ -11198,10 +11198,10 @@
         <v>3290</v>
       </c>
       <c r="C8" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D8" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>3292</v>
@@ -11227,10 +11227,10 @@
         <v>3290</v>
       </c>
       <c r="C9" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D9" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>3292</v>
@@ -11256,10 +11256,10 @@
         <v>3290</v>
       </c>
       <c r="C10" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D10" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>3292</v>
@@ -11285,10 +11285,10 @@
         <v>3290</v>
       </c>
       <c r="C11" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D11" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>3292</v>
@@ -11320,10 +11320,10 @@
         <v>3290</v>
       </c>
       <c r="C12" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D12" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>3292</v>
@@ -11352,10 +11352,10 @@
         <v>3291</v>
       </c>
       <c r="C13" s="14">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D13" s="14">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>3292</v>
